--- a/reporte_estadistico/data/gas/metrics_data_tcon.xlsx
+++ b/reporte_estadistico/data/gas/metrics_data_tcon.xlsx
@@ -1,21 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\gas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quant0</t>
+  </si>
+  <si>
+    <t>quant25</t>
+  </si>
+  <si>
+    <t>quant50</t>
+  </si>
+  <si>
+    <t>quant75</t>
+  </si>
+  <si>
+    <t>quant100</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Estrato1_tcon</t>
+  </si>
+  <si>
+    <t>Estrato2_tcon</t>
+  </si>
+  <si>
+    <t>Estrato3_tcon</t>
+  </si>
+  <si>
+    <t>Estrato4_tcon</t>
+  </si>
+  <si>
+    <t>Estrato5_tcon</t>
+  </si>
+  <si>
+    <t>Estrato6_tcon</t>
+  </si>
+  <si>
+    <t>totResidencial_tcon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +130,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,86 +427,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quant0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quant25</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quant50</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quant75</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quant100</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>std_dev</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Estrato1_tcon</t>
-        </is>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.03</v>
       </c>
       <c r="C2">
-        <v>26.954</v>
+        <v>26.954000000000001</v>
       </c>
       <c r="D2">
         <v>112.002</v>
@@ -438,13 +489,13 @@
         <v>323.9980000000001</v>
       </c>
       <c r="F2">
-        <v>36788.535</v>
+        <v>36788.535000000003</v>
       </c>
       <c r="G2">
         <v>1.347137559602787</v>
       </c>
       <c r="H2">
-        <v>4.088151409670336</v>
+        <v>4.0881514096703357</v>
       </c>
       <c r="I2">
         <v>112.002</v>
@@ -453,78 +504,74 @@
         <v>2017.057031722002</v>
       </c>
       <c r="K2">
-        <v>4068519.069219171</v>
+        <v>4068519.0692191711</v>
       </c>
       <c r="L2">
         <v>513.5727298013245</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estrato2_tcon</t>
-        </is>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>55.7185</v>
+        <v>55.718499999999999</v>
       </c>
       <c r="D3">
-        <v>140.919</v>
+        <v>140.91900000000001</v>
       </c>
       <c r="E3">
         <v>360.8965</v>
       </c>
       <c r="F3">
-        <v>141716.714</v>
+        <v>141716.71400000001</v>
       </c>
       <c r="G3">
-        <v>1.730792003645719</v>
+        <v>1.7307920036457189</v>
       </c>
       <c r="H3">
-        <v>5.655189801719564</v>
+        <v>5.6551898017195636</v>
       </c>
       <c r="I3">
-        <v>140.919</v>
+        <v>140.91900000000001</v>
       </c>
       <c r="J3">
-        <v>5517.615756239805</v>
+        <v>5517.6157562398048</v>
       </c>
       <c r="K3">
         <v>30444083.63350575</v>
       </c>
       <c r="L3">
-        <v>798.0872940397351</v>
+        <v>798.08729403973507</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Estrato3_tcon</t>
-        </is>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D4">
         <v>12.67</v>
       </c>
       <c r="E4">
-        <v>92.99350000000001</v>
+        <v>92.993500000000012</v>
       </c>
       <c r="F4">
         <v>116240.84</v>
       </c>
       <c r="G4">
-        <v>2.380161707570142</v>
+        <v>2.3801617075701418</v>
       </c>
       <c r="H4">
-        <v>8.266328952358828</v>
+        <v>8.2663289523588279</v>
       </c>
       <c r="I4">
         <v>12.67</v>
@@ -533,17 +580,15 @@
         <v>4505.465033701922</v>
       </c>
       <c r="K4">
-        <v>20299215.16991066</v>
+        <v>20299215.169910658</v>
       </c>
       <c r="L4">
-        <v>492.9036</v>
+        <v>492.90359999999998</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Estrato4_tcon</t>
-        </is>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -555,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.8215</v>
+        <v>2.8214999999999999</v>
       </c>
       <c r="F5">
         <v>52406.01</v>
@@ -573,17 +618,15 @@
         <v>2017.340636712355</v>
       </c>
       <c r="K5">
-        <v>4069663.24453101</v>
+        <v>4069663.2445310098</v>
       </c>
       <c r="L5">
-        <v>185.4727099337748</v>
+        <v>185.47270993377481</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estrato5_tcon</t>
-        </is>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -598,32 +641,30 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21432.497</v>
+        <v>21432.496999999999</v>
       </c>
       <c r="G6">
-        <v>6.035511565322794</v>
+        <v>6.0355115653227944</v>
       </c>
       <c r="H6">
-        <v>42.66663413389068</v>
+        <v>42.666634133890682</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>897.389506292621</v>
+        <v>897.38950629262104</v>
       </c>
       <c r="K6">
-        <v>805307.9260041142</v>
+        <v>805307.92600411421</v>
       </c>
       <c r="L6">
-        <v>78.73140662251656</v>
+        <v>78.731406622516559</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estrato6_tcon</t>
-        </is>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -638,44 +679,42 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24680.294</v>
+        <v>24680.294000000002</v>
       </c>
       <c r="G7">
         <v>11.23002859650351</v>
       </c>
       <c r="H7">
-        <v>130.4688547793075</v>
+        <v>130.46885477930749</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>979.309870142396</v>
+        <v>979.30987014239599</v>
       </c>
       <c r="K7">
         <v>959047.8217583166</v>
       </c>
       <c r="L7">
-        <v>71.7802582781457</v>
+        <v>71.780258278145695</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>totResidencial_tcon</t>
-        </is>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>2.196</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="C8">
         <v>124.3005</v>
       </c>
       <c r="D8">
-        <v>317.563</v>
+        <v>317.56299999999999</v>
       </c>
       <c r="E8">
-        <v>799.3154999999999</v>
+        <v>799.31549999999993</v>
       </c>
       <c r="F8">
         <v>393264.89</v>
@@ -684,19 +723,19 @@
         <v>1.923953519859654</v>
       </c>
       <c r="H8">
-        <v>6.710685192742832</v>
+        <v>6.7106851927428322</v>
       </c>
       <c r="I8">
-        <v>317.563</v>
+        <v>317.56299999999999</v>
       </c>
       <c r="J8">
-        <v>15483.61810529523</v>
+        <v>15483.618105295231</v>
       </c>
       <c r="K8">
-        <v>239742429.6306263</v>
+        <v>239742429.63062629</v>
       </c>
       <c r="L8">
-        <v>2140.547998675497</v>
+        <v>2140.5479986754972</v>
       </c>
     </row>
   </sheetData>
